--- a/Input/Takaful_Mednet/benefits.xlsx
+++ b/Input/Takaful_Mednet/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="112">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -64,6 +64,9 @@
     <t xml:space="preserve">Organ Transplant</t>
   </si>
   <si>
+    <t xml:space="preserve">Out-patient (Consultations, Lab &amp; Diagnostics, Pharmacy, Physiotherapy)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Out-patient benefits</t>
   </si>
   <si>
@@ -190,10 +193,13 @@
     <t xml:space="preserve">startDate</t>
   </si>
   <si>
+    <t xml:space="preserve">coverages</t>
+  </si>
+  <si>
     <t xml:space="preserve">frequency</t>
   </si>
   <si>
-    <t xml:space="preserve">coverages</t>
+    <t xml:space="preserve">currency</t>
   </si>
   <si>
     <t xml:space="preserve">Rhodium</t>
@@ -300,7 +306,7 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultations 20% with AED 50 max, All OP services nil co-pay/Nil/Nil</t>
+    <t xml:space="preserve">Consultations 20% with AED 50 max, All OP services nil co-pay/Nil/Nil/</t>
   </si>
   <si>
     <t xml:space="preserve">takaful_emarat_mednet</t>
@@ -309,10 +315,13 @@
     <t xml:space="preserve">NE/Dubai</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-10-20</t>
+    <t xml:space="preserve">2024-02-12</t>
   </si>
   <si>
     <t xml:space="preserve">Annually</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
   </si>
   <si>
     <t xml:space="preserve">Platinum</t>
@@ -337,7 +346,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/10%/10%</t>
+      <t xml:space="preserve">/10%/10%/</t>
     </r>
   </si>
   <si>
@@ -363,7 +372,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/20%/20%</t>
+      <t xml:space="preserve">/20%/20%/</t>
     </r>
   </si>
   <si>
@@ -373,22 +382,22 @@
     <t xml:space="preserve">Mednet Green</t>
   </si>
   <si>
+    <t xml:space="preserve">Silver Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mednet Emerald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mednet Silver Pearl</t>
+  </si>
+  <si>
     <t xml:space="preserve">Silver</t>
   </si>
   <si>
     <t xml:space="preserve">Mednet Silk Road (OP restricted to Clinics )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mednet Silver Pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mednet Emerald</t>
   </si>
 </sst>
 </file>
@@ -399,7 +408,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -426,6 +435,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -475,7 +496,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -492,12 +513,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -517,20 +546,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ8"/>
+  <dimension ref="A1:BK8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BA1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BJ2" activeCellId="0" sqref="BJ2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="66.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="65.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="23.03"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,1207 +603,1215 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="2"/>
       <c r="AN1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AU1" s="2"/>
       <c r="AV1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BE1" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BF1" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BG1" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BH1" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>58</v>
+    <row r="2" customFormat="false" ht="250.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="BI2" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="BJ2" s="5" t="s">
-        <v>60</v>
+      <c r="BH2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ2" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="BK2" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>95</v>
+    <row r="3" customFormat="false" ht="250.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
       <c r="AW3" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BF3" s="3"/>
       <c r="BG3" s="3"/>
       <c r="BH3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>98</v>
+    <row r="4" customFormat="false" ht="250.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>99</v>
+        <v>62</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BE4" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="BF4" s="3"/>
       <c r="BG4" s="3"/>
       <c r="BH4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>101</v>
+    <row r="5" customFormat="false" ht="294" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>62</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB5" s="2"/>
       <c r="AC5" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>103</v>
+    <row r="6" customFormat="false" ht="250.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>104</v>
+        <v>62</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BD6" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>105</v>
+    <row r="7" customFormat="false" ht="229.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>62</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BD7" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>107</v>
+    <row r="8" customFormat="false" ht="229.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>108</v>
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB8" s="2"/>
       <c r="AC8" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BA8" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BD8" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
